--- a/BrainStation/excel/excel Advanced prep/tasks/session4/Accountancy Exam - Conditional Formats.xlsx
+++ b/BrainStation/excel/excel Advanced prep/tasks/session4/Accountancy Exam - Conditional Formats.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Exercises\Excel 2016\Conditional Formatting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\brain station\BrainStation\excel\excel Advanced prep\tasks\session4\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311CABE5-69AF-497A-A4B5-BA915DAC5C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="5451"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -86,7 +98,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -227,9 +239,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -267,7 +279,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -373,7 +385,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -515,36 +527,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B4:B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.84375" customWidth="1"/>
-    <col min="2" max="2" width="13.69140625" customWidth="1"/>
-    <col min="3" max="3" width="14.84375" customWidth="1"/>
-    <col min="4" max="4" width="9.23046875" style="1"/>
-    <col min="5" max="5" width="10.84375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.23046875" style="2"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -561,7 +573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>980748</v>
       </c>
@@ -578,7 +590,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>379829</v>
       </c>
@@ -595,7 +607,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>838293</v>
       </c>
@@ -612,7 +624,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>384953</v>
       </c>
@@ -629,7 +641,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>234242</v>
       </c>
@@ -646,7 +658,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>234625</v>
       </c>
@@ -663,7 +675,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>546175</v>
       </c>
@@ -680,7 +692,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>185675</v>
       </c>
@@ -697,7 +709,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>456546</v>
       </c>
@@ -714,7 +726,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>465464</v>
       </c>
@@ -731,7 +743,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>745644</v>
       </c>
@@ -748,7 +760,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>641645</v>
       </c>
@@ -765,7 +777,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>727654</v>
       </c>
@@ -782,7 +794,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>345634</v>
       </c>
@@ -799,7 +811,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>457465</v>
       </c>
@@ -816,7 +828,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>115465</v>
       </c>
@@ -833,7 +845,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>345464</v>
       </c>
@@ -850,7 +862,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>896667</v>
       </c>
@@ -867,7 +879,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>654745</v>
       </c>
@@ -884,7 +896,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>568545</v>
       </c>
@@ -901,7 +913,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>667563</v>
       </c>
@@ -918,7 +930,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>346366</v>
       </c>
@@ -935,7 +947,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>643456</v>
       </c>
@@ -952,7 +964,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="21.45" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>13</v>
       </c>
@@ -972,51 +984,31 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-    </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-    </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-    </row>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
